--- a/Isochrone/Excel Data/education.xlsx
+++ b/Isochrone/Excel Data/education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75A7765-5379-4627-92DA-A67DA7EB27E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B183A82D-2426-4CE4-B2C5-2B15BE89DC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="6150" windowWidth="25440" windowHeight="15390" xr2:uid="{DA910459-6CBC-467F-BCF7-3AD53B3099DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Number</t>
   </si>
@@ -121,6 +121,72 @@
   </si>
   <si>
     <t>Culpeper</t>
+  </si>
+  <si>
+    <t>Rappahannock County High School</t>
+  </si>
+  <si>
+    <t>12576 Lee Hwy., Washington, VA 22747</t>
+  </si>
+  <si>
+    <t>Rappahannock Elementary School</t>
+  </si>
+  <si>
+    <t>34 School House Rd, Washington, VA 22747</t>
+  </si>
+  <si>
+    <t>BABY BEAR DAYCARE</t>
+  </si>
+  <si>
+    <t>30 Main St., Sperryville (540) ­987­-9644</t>
+  </si>
+  <si>
+    <t>HEADWATERS</t>
+  </si>
+  <si>
+    <t>567 Mount Salem Avenue, Washington VA 22747</t>
+  </si>
+  <si>
+    <t>HEARTHSTONE SCHOOL</t>
+  </si>
+  <si>
+    <t>11576 Lee Highway P.O. Box 247 Sperryville, Virginia 22740 (540) ­987-­9212</t>
+  </si>
+  <si>
+    <t>MOUNTAIN LAUREL MONTESSORI FARM SCHOOL</t>
+  </si>
+  <si>
+    <t>23 Sunny Slope Ln., Flint Hill (540) ­675-­1011</t>
+  </si>
+  <si>
+    <t>RAPPAHANNOCK CENTER FOR EDUCATION</t>
+  </si>
+  <si>
+    <t>12018 Lee Highway, Sperryville VA 22740</t>
+  </si>
+  <si>
+    <t>RAPPAHANNOCK COUNTY PUBLIC SCHOOLS</t>
+  </si>
+  <si>
+    <t>6 Schoolhouse Rd., Washington, VA 22747 (540) ­227­-0023</t>
+  </si>
+  <si>
+    <t>THE CHILD CARE &amp; LEARNING CENTER</t>
+  </si>
+  <si>
+    <t>12763 Lee Hwy Washington, VA 22747</t>
+  </si>
+  <si>
+    <t>RUTH'S ROOTS RESEARCH</t>
+  </si>
+  <si>
+    <t>59 Bunker Hill Ln, Castleton, VA 22716 (540) 229-2225</t>
+  </si>
+  <si>
+    <t>WAKEFIELD COUNTRY DAY SCHOOL</t>
+  </si>
+  <si>
+    <t>1059 Zachary Taylor Hwy Huntly, Virginia 22640</t>
   </si>
 </sst>
 </file>
@@ -472,15 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74918417-2116-44CD-8F68-3C27DD28F669}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -682,7 +751,195 @@
         <v>38.462195199999996</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>-81.735247099999995</v>
+      </c>
+      <c r="H9">
+        <v>36.783250299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>-78.175811767578097</v>
+      </c>
+      <c r="H10">
+        <v>38.688613891601499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>-78.230248900000007</v>
+      </c>
+      <c r="H11">
+        <v>38.65898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <v>-78.158004760742102</v>
+      </c>
+      <c r="H12">
+        <v>38.709564208984297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>-78.218274800000003</v>
+      </c>
+      <c r="H13">
+        <v>38.662693300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>-78.104209899902301</v>
+      </c>
+      <c r="H14">
+        <v>38.772533416747997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>-78.222740173339801</v>
+      </c>
+      <c r="H15">
+        <v>38.6597290039062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>-81.637420000000006</v>
+      </c>
+      <c r="H16">
+        <v>36.667605999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>-81.735247099999995</v>
+      </c>
+      <c r="H17">
+        <v>36.783250299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>-78.125986999999995</v>
+      </c>
+      <c r="H18">
+        <v>38.643960999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>-78.104537963867102</v>
+      </c>
+      <c r="H19">
+        <v>38.791622161865199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>